--- a/data/trans_orig/P24F-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>7371</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3597</v>
+        <v>3572</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14331</v>
+        <v>14682</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02814680977127326</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0137339762030553</v>
+        <v>0.01364015039099638</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0547220388512501</v>
+        <v>0.0560649461852401</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -764,19 +764,19 @@
         <v>15090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8834</v>
+        <v>8959</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24344</v>
+        <v>23006</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06789542484047108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03974558307984519</v>
+        <v>0.04030878070206791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1095306351987887</v>
+        <v>0.1035098570916054</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -785,19 +785,19 @@
         <v>22461</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14895</v>
+        <v>14841</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33602</v>
+        <v>32768</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04639438784676923</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03076677414266069</v>
+        <v>0.03065550680542356</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06940662304362248</v>
+        <v>0.06768343465989204</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>85975</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70498</v>
+        <v>71736</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102717</v>
+        <v>103364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3282949232500144</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2691978938576005</v>
+        <v>0.2739247459472279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3922245759350644</v>
+        <v>0.3946955452425874</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>57</v>
@@ -835,19 +835,19 @@
         <v>62076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48027</v>
+        <v>48183</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>76856</v>
+        <v>75307</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2793012992442893</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2160866430265604</v>
+        <v>0.2167897891928122</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3457980030970518</v>
+        <v>0.3388283469918124</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>139</v>
@@ -856,19 +856,19 @@
         <v>148051</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>127338</v>
+        <v>127989</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>168861</v>
+        <v>168569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3058031967410635</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2630197598622284</v>
+        <v>0.2643656958504165</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.348786245295192</v>
+        <v>0.348183187957629</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>107299</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91259</v>
+        <v>89980</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>123086</v>
+        <v>123526</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4097228327548682</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3484724766546054</v>
+        <v>0.3435867697220198</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4700045081310347</v>
+        <v>0.4716835364899526</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>102</v>
@@ -906,19 +906,19 @@
         <v>105084</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>90138</v>
+        <v>91261</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>121224</v>
+        <v>122016</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4728075375149807</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4055585477568615</v>
+        <v>0.410612197094314</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5454250207016808</v>
+        <v>0.5489888302969501</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>209</v>
@@ -927,19 +927,19 @@
         <v>212383</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>191578</v>
+        <v>189274</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>234335</v>
+        <v>234300</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4386834159972216</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3957104300978177</v>
+        <v>0.3909504692067234</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.484025068778857</v>
+        <v>0.483952771207574</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>61238</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48522</v>
+        <v>48599</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76346</v>
+        <v>77705</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2338354342238441</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1852816480336537</v>
+        <v>0.185575573140458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2915288501740497</v>
+        <v>0.2967153064774522</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -977,19 +977,19 @@
         <v>40005</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30177</v>
+        <v>29564</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53030</v>
+        <v>52836</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.179995738400259</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1357777296800037</v>
+        <v>0.1330196322395197</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2385990631944802</v>
+        <v>0.2377241966084837</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -998,19 +998,19 @@
         <v>101242</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>83482</v>
+        <v>83334</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119615</v>
+        <v>120202</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2091189994149457</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1724333749227737</v>
+        <v>0.1721287599184661</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2470682399000318</v>
+        <v>0.2482798855432914</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>17885</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11127</v>
+        <v>10489</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27474</v>
+        <v>27473</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03624539793906584</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02254941446335785</v>
+        <v>0.02125686143844661</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05567956949810537</v>
+        <v>0.05567592739786031</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>16</v>
@@ -1123,19 +1123,19 @@
         <v>16090</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9779</v>
+        <v>9265</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24954</v>
+        <v>25503</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05788684459728822</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03518359158282477</v>
+        <v>0.03333379066386379</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08977727065006171</v>
+        <v>0.09175304744053422</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>34</v>
@@ -1144,19 +1144,19 @@
         <v>33975</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23622</v>
+        <v>23302</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>47131</v>
+        <v>45773</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04404344967083097</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03062232118887531</v>
+        <v>0.03020780537911939</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06109823647620176</v>
+        <v>0.05933776539724336</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>176460</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>155451</v>
+        <v>154028</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>197966</v>
+        <v>196664</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3576155291289266</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3150383747524297</v>
+        <v>0.3121540730785809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4011986300662186</v>
+        <v>0.3985593177336144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -1194,19 +1194,19 @@
         <v>98128</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82921</v>
+        <v>82982</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115594</v>
+        <v>114379</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3530351891991227</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2983267535843053</v>
+        <v>0.2985441195554625</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4158722362515158</v>
+        <v>0.4115010104293014</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>274</v>
@@ -1215,19 +1215,19 @@
         <v>274588</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>248664</v>
+        <v>247489</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>302769</v>
+        <v>300236</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3559650975156542</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.322357762335963</v>
+        <v>0.3208353124219055</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3924979264840752</v>
+        <v>0.3892138888499937</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>202677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>178122</v>
+        <v>180740</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225099</v>
+        <v>226986</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4107467693809399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3609828572021835</v>
+        <v>0.3662879423645268</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.456187555344948</v>
+        <v>0.4600117208510585</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -1265,19 +1265,19 @@
         <v>116786</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>100791</v>
+        <v>100753</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>133329</v>
+        <v>133256</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4201604108813815</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3626160475310896</v>
+        <v>0.3624809432197365</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4796770308409442</v>
+        <v>0.4794140217515071</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>305</v>
@@ -1286,19 +1286,19 @@
         <v>319463</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>291781</v>
+        <v>294847</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>347996</v>
+        <v>347071</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.414138782149959</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3782525028130667</v>
+        <v>0.382227137934205</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4511278737961498</v>
+        <v>0.4499286634361924</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>96414</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80611</v>
+        <v>80085</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>116819</v>
+        <v>115713</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1953923035510676</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1633661472911428</v>
+        <v>0.1623006965086683</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2367456214270239</v>
+        <v>0.2345039559697152</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>45</v>
@@ -1336,19 +1336,19 @@
         <v>46951</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34386</v>
+        <v>36061</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59773</v>
+        <v>61039</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1689175553222075</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1237116942938737</v>
+        <v>0.1297353615977555</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2150471750569083</v>
+        <v>0.2196012020547886</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>138</v>
@@ -1357,19 +1357,19 @@
         <v>143365</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>122441</v>
+        <v>123575</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>166226</v>
+        <v>164376</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1858526706635559</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1587273107742748</v>
+        <v>0.160197360011645</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2154884083207984</v>
+        <v>0.2130899598024869</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>19728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11602</v>
+        <v>11874</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30731</v>
+        <v>30946</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04340404907465415</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02552495097460605</v>
+        <v>0.0261241657176253</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06761114350986415</v>
+        <v>0.06808431163681851</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1482,19 +1482,19 @@
         <v>11149</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6034</v>
+        <v>5998</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19364</v>
+        <v>19358</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04480470373171182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02425032724428229</v>
+        <v>0.02410326842977286</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07781609791808486</v>
+        <v>0.07779397638575956</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -1503,19 +1503,19 @@
         <v>30878</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21466</v>
+        <v>21177</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43104</v>
+        <v>43583</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0438995811794962</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03051851362341891</v>
+        <v>0.03010812255364063</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06128212486237282</v>
+        <v>0.06196401914876844</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>190778</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>170432</v>
+        <v>169007</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>211684</v>
+        <v>212846</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.419728521682095</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3749667940733533</v>
+        <v>0.3718305204677876</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4657239096638612</v>
+        <v>0.4682811052549888</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>97</v>
@@ -1553,19 +1553,19 @@
         <v>99266</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>83516</v>
+        <v>83095</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>114173</v>
+        <v>114350</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3989105039506529</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3356176661027873</v>
+        <v>0.3339257718364452</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4588165161730391</v>
+        <v>0.4595276234990178</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>288</v>
@@ -1574,19 +1574,19 @@
         <v>290043</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>263951</v>
+        <v>262597</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>318744</v>
+        <v>314578</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.412363397029048</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3752684894833385</v>
+        <v>0.3733421806605341</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4531682735239709</v>
+        <v>0.4472454573521492</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>168794</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>148366</v>
+        <v>148602</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>187886</v>
+        <v>190337</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3713625477574251</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3264196680729561</v>
+        <v>0.3269373110752509</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4133668634894218</v>
+        <v>0.4187582535828326</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>99</v>
@@ -1624,19 +1624,19 @@
         <v>98054</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>82307</v>
+        <v>82807</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113691</v>
+        <v>114476</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3940406019085559</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3307617953790668</v>
+        <v>0.3327699214179463</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4568804948505668</v>
+        <v>0.4600367463898497</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>263</v>
@@ -1645,19 +1645,19 @@
         <v>266847</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>239361</v>
+        <v>241710</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>294799</v>
+        <v>295447</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3793857273831857</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3403070696572803</v>
+        <v>0.3436473320846768</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4191260522420805</v>
+        <v>0.42004737741961</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>75226</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60981</v>
+        <v>58968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>91186</v>
+        <v>91359</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1655048814858257</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1341636818771391</v>
+        <v>0.1297356489848429</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2006182456999258</v>
+        <v>0.2009983321357235</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -1695,19 +1695,19 @@
         <v>40373</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30018</v>
+        <v>29594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52632</v>
+        <v>52305</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1622441904090794</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1206321407681911</v>
+        <v>0.1189258490540477</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2115092955860467</v>
+        <v>0.2101940355800594</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>113</v>
@@ -1716,19 +1716,19 @@
         <v>115599</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>96013</v>
+        <v>97116</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>135495</v>
+        <v>136456</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1643512944082701</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1365049111251868</v>
+        <v>0.138073350104659</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1926370452813583</v>
+        <v>0.1940039982763929</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>10037</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4888</v>
+        <v>4981</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18385</v>
+        <v>18378</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06260343768637722</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03048419394421063</v>
+        <v>0.03106452344393408</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1146683418499512</v>
+        <v>0.1146221743188632</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1841,19 +1841,19 @@
         <v>4865</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1896</v>
+        <v>1028</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10125</v>
+        <v>9863</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04933092916707712</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01922978093212482</v>
+        <v>0.01042774148325799</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1026641928320984</v>
+        <v>0.1000122965849832</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1862,19 +1862,19 @@
         <v>14902</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9027</v>
+        <v>8406</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24589</v>
+        <v>23779</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05754867330671812</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03486147373349038</v>
+        <v>0.03246089234736939</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09495640504041569</v>
+        <v>0.09182632387984223</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>56677</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44841</v>
+        <v>45151</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>68526</v>
+        <v>70022</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.35350034775424</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2796771256982049</v>
+        <v>0.2816089034449842</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4274036108508149</v>
+        <v>0.4367291954686208</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -1912,19 +1912,19 @@
         <v>38535</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29645</v>
+        <v>29702</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48696</v>
+        <v>48933</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3907355106356987</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3005947617500558</v>
+        <v>0.3011763128275108</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4937653815694006</v>
+        <v>0.4961744846983906</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>92</v>
@@ -1933,19 +1933,19 @@
         <v>95212</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>79051</v>
+        <v>80605</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>111126</v>
+        <v>110700</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3676811617827495</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3052718907465365</v>
+        <v>0.311274421825433</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4291359174258383</v>
+        <v>0.4274889652935057</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>59085</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>46731</v>
+        <v>46768</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71869</v>
+        <v>71597</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3685174621463497</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2914609081028145</v>
+        <v>0.2916953632016677</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4482516891068133</v>
+        <v>0.446553149719176</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>31</v>
@@ -1983,19 +1983,19 @@
         <v>30383</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21946</v>
+        <v>22532</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39799</v>
+        <v>39443</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3080833505109757</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2225290683845207</v>
+        <v>0.2284677588529282</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4035564886085554</v>
+        <v>0.399943035970216</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>89</v>
@@ -2004,19 +2004,19 @@
         <v>89469</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73219</v>
+        <v>74936</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>104434</v>
+        <v>105741</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3455014516938705</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2827483915481976</v>
+        <v>0.2893793774775046</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4032948350429188</v>
+        <v>0.408340669781994</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>34532</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24818</v>
+        <v>23770</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45946</v>
+        <v>45246</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2153787524130331</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1547886136685115</v>
+        <v>0.1482523376064275</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2865670927618192</v>
+        <v>0.282202325010586</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -2054,19 +2054,19 @@
         <v>24838</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16423</v>
+        <v>17020</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33421</v>
+        <v>34312</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2518502096862485</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1665257403507259</v>
+        <v>0.1725751980878845</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3388796473830428</v>
+        <v>0.3479220394644514</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>55</v>
@@ -2075,19 +2075,19 @@
         <v>59370</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46701</v>
+        <v>45765</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74344</v>
+        <v>75479</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2292687132166619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1803457338199075</v>
+        <v>0.1767301164577051</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2870926759640566</v>
+        <v>0.2914764660442852</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>55022</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42296</v>
+        <v>42485</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>70509</v>
+        <v>71604</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04015654112430414</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03086909639867454</v>
+        <v>0.03100660462846444</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05145977116538901</v>
+        <v>0.05225918529618979</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -2200,19 +2200,19 @@
         <v>47194</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>35626</v>
+        <v>36594</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61679</v>
+        <v>62750</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05567524759193272</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04202773608376574</v>
+        <v>0.04316985976327464</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07276296401134449</v>
+        <v>0.07402574613985997</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>100</v>
@@ -2221,19 +2221,19 @@
         <v>102216</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>84047</v>
+        <v>84428</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>122747</v>
+        <v>125626</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04608786643708039</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03789591573010722</v>
+        <v>0.0380673030819189</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05534497203019342</v>
+        <v>0.05664333857351789</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>509890</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>474464</v>
+        <v>473453</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>543370</v>
+        <v>545651</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3721345329455427</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3462791919877016</v>
+        <v>0.3455418217138533</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3965691617641401</v>
+        <v>0.398234021856456</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>290</v>
@@ -2271,19 +2271,19 @@
         <v>298004</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>272028</v>
+        <v>270384</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>325390</v>
+        <v>327721</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3515558019838229</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3209109640005664</v>
+        <v>0.3189722279067859</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3838630715955476</v>
+        <v>0.3866126115749067</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>793</v>
@@ -2292,19 +2292,19 @@
         <v>807895</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>763071</v>
+        <v>759232</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>850725</v>
+        <v>852676</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3642692415881302</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3440588991145448</v>
+        <v>0.3423280217885267</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3835810977783973</v>
+        <v>0.3844605050932326</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>537856</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>500617</v>
+        <v>503937</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>573918</v>
+        <v>576049</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.392544724523904</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3653663137771981</v>
+        <v>0.3677898884874997</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4188640481102012</v>
+        <v>0.4204190933366512</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>344</v>
@@ -2342,19 +2342,19 @@
         <v>350307</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>320279</v>
+        <v>322430</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>377884</v>
+        <v>379097</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.413257123172724</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3778329065013979</v>
+        <v>0.3803701708572679</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4457900197973383</v>
+        <v>0.4472207224651238</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>866</v>
@@ -2363,19 +2363,19 @@
         <v>888163</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>838063</v>
+        <v>840590</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>936127</v>
+        <v>934167</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4004611043233624</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3778717444492988</v>
+        <v>0.379011311455568</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4220875220855757</v>
+        <v>0.4212036937195458</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>267409</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>237380</v>
+        <v>234990</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>300458</v>
+        <v>296925</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1951642014062491</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1732477267429395</v>
+        <v>0.1715030408684943</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2192841686652241</v>
+        <v>0.2167056464780605</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>148</v>
@@ -2413,19 +2413,19 @@
         <v>152167</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>129985</v>
+        <v>130406</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>174487</v>
+        <v>174120</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1795118272515204</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1533431794052594</v>
+        <v>0.1538400796884538</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2058418437849492</v>
+        <v>0.2054095637702836</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>403</v>
@@ -2434,19 +2434,19 @@
         <v>419577</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>385101</v>
+        <v>384213</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>454655</v>
+        <v>456558</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1891817876514271</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1736371239965739</v>
+        <v>0.1732368091076384</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2049979655323681</v>
+        <v>0.2058561357107823</v>
       </c>
     </row>
     <row r="28">
@@ -2778,19 +2778,19 @@
         <v>4194</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10415</v>
+        <v>10781</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008491934846460868</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002500715505177826</v>
+        <v>0.002478516079628114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02108676467769103</v>
+        <v>0.02182703125861865</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2799,19 +2799,19 @@
         <v>3297</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8772</v>
+        <v>10038</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009224302719335515</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002778700212966077</v>
+        <v>0.002808843905545455</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02454197840560418</v>
+        <v>0.02808259702957978</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2820,19 +2820,19 @@
         <v>7492</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2982</v>
+        <v>3237</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13624</v>
+        <v>14759</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008799411355373855</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003502135919877387</v>
+        <v>0.003801542925572079</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01600233652537386</v>
+        <v>0.01733555620874887</v>
       </c>
     </row>
     <row r="5">
@@ -2849,19 +2849,19 @@
         <v>72315</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>57974</v>
+        <v>58232</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>89805</v>
+        <v>89829</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1464082373371972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1173723993420059</v>
+        <v>0.1178955312034211</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1818174175122202</v>
+        <v>0.1818667453742773</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -2870,19 +2870,19 @@
         <v>49216</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35195</v>
+        <v>36759</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63335</v>
+        <v>63425</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1376907805965755</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09846547214176936</v>
+        <v>0.1028406069114596</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1771917923200668</v>
+        <v>0.177445003186028</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>113</v>
@@ -2891,19 +2891,19 @@
         <v>121531</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102426</v>
+        <v>102645</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>145220</v>
+        <v>145177</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1427483100458957</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1203084110321926</v>
+        <v>0.1205649728377252</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1705734300239858</v>
+        <v>0.1705226203060409</v>
       </c>
     </row>
     <row r="6">
@@ -2920,19 +2920,19 @@
         <v>329302</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>307559</v>
+        <v>304983</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>348507</v>
+        <v>349547</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6666981665535765</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6226778325758464</v>
+        <v>0.6174624002968219</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7055811233352207</v>
+        <v>0.7076865696978865</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>220</v>
@@ -2941,19 +2941,19 @@
         <v>244020</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>225111</v>
+        <v>223384</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>261711</v>
+        <v>259774</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6826955558765038</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6297945871482251</v>
+        <v>0.6249624496376226</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7321906053136307</v>
+        <v>0.7267699750089855</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>530</v>
@@ -2962,19 +2962,19 @@
         <v>573322</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>545699</v>
+        <v>545449</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>601117</v>
+        <v>603262</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6734144926007971</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6409696724673243</v>
+        <v>0.6406756416809262</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7060630841119221</v>
+        <v>0.7085817211266994</v>
       </c>
     </row>
     <row r="7">
@@ -2991,19 +2991,19 @@
         <v>88118</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73112</v>
+        <v>72474</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107234</v>
+        <v>108243</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1784016612627654</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1480214900120917</v>
+        <v>0.1467289392283171</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2171046083083175</v>
+        <v>0.2191464254637728</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -3012,19 +3012,19 @@
         <v>60903</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46885</v>
+        <v>48657</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77372</v>
+        <v>77099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1703893608075852</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.131170016638313</v>
+        <v>0.1361290664249671</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2164651613437005</v>
+        <v>0.2157009430269186</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -3033,19 +3033,19 @@
         <v>149021</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>128883</v>
+        <v>126628</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173334</v>
+        <v>173416</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1750377859979333</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1513840199186786</v>
+        <v>0.1487357145345921</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2035948692521596</v>
+        <v>0.2036912972184299</v>
       </c>
     </row>
     <row r="8">
@@ -3137,19 +3137,19 @@
         <v>5621</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1884</v>
+        <v>2765</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12175</v>
+        <v>11872</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01385281473534687</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004643856596032943</v>
+        <v>0.006814089149192021</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03000768974691317</v>
+        <v>0.02926163112318784</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8233</v>
+        <v>7448</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007162673554378375</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02802952021877822</v>
+        <v>0.0253569408761305</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -3179,19 +3179,19 @@
         <v>7724</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3829</v>
+        <v>3701</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15551</v>
+        <v>14628</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01104346050743001</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005474655730648702</v>
+        <v>0.005291388586631211</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02223296529682248</v>
+        <v>0.02091388683924873</v>
       </c>
     </row>
     <row r="10">
@@ -3208,19 +3208,19 @@
         <v>51543</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39474</v>
+        <v>39315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67994</v>
+        <v>68259</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1270377262899212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09729028531740927</v>
+        <v>0.09689797429287948</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1675840575148846</v>
+        <v>0.168235423494786</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -3229,19 +3229,19 @@
         <v>48362</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34758</v>
+        <v>35916</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62210</v>
+        <v>64387</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1646560321473737</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1183385889096336</v>
+        <v>0.1222815380037604</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2118024510258212</v>
+        <v>0.2192149982789496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -3250,19 +3250,19 @@
         <v>99906</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81742</v>
+        <v>82448</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122073</v>
+        <v>121281</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.142834574779209</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1168663535618675</v>
+        <v>0.1178761092577477</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1745267621737718</v>
+        <v>0.1733951343153268</v>
       </c>
     </row>
     <row r="11">
@@ -3279,19 +3279,19 @@
         <v>258712</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>236223</v>
+        <v>236716</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>278009</v>
+        <v>277164</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6376412867376019</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5822137498660475</v>
+        <v>0.5834277923317251</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.685201494849044</v>
+        <v>0.6831202991408212</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>165</v>
@@ -3300,19 +3300,19 @@
         <v>178193</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>160345</v>
+        <v>159840</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>196520</v>
+        <v>194785</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.606686136956529</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5459172925134526</v>
+        <v>0.5441976746198207</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6690810347060698</v>
+        <v>0.6631731058721232</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>410</v>
@@ -3321,19 +3321,19 @@
         <v>436906</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>411498</v>
+        <v>410859</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>464611</v>
+        <v>461787</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6246424607695275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5883168248900114</v>
+        <v>0.5874039969730597</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6642535229812098</v>
+        <v>0.660214709555827</v>
       </c>
     </row>
     <row r="12">
@@ -3350,19 +3350,19 @@
         <v>89857</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>73757</v>
+        <v>73280</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>109225</v>
+        <v>106207</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2214681722371301</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1817867019182857</v>
+        <v>0.180611224973541</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2692041740802878</v>
+        <v>0.2617654895590955</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -3371,19 +3371,19 @@
         <v>65057</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50043</v>
+        <v>52229</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>81163</v>
+        <v>82642</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.221495157341719</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1703774979198166</v>
+        <v>0.1778201427419162</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2763327052751366</v>
+        <v>0.2813671665534307</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>144</v>
@@ -3392,19 +3392,19 @@
         <v>154914</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>131999</v>
+        <v>133849</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>179123</v>
+        <v>179239</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2214795039438336</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1887192095172639</v>
+        <v>0.1913634783328513</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2560908757319713</v>
+        <v>0.2562570196716422</v>
       </c>
     </row>
     <row r="13">
@@ -3496,19 +3496,19 @@
         <v>8299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3888</v>
+        <v>4063</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15238</v>
+        <v>15837</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02929450733773778</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0137226473585216</v>
+        <v>0.01434087875148925</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0537859137203472</v>
+        <v>0.05590181878969286</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -3517,19 +3517,19 @@
         <v>4156</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1150</v>
+        <v>1033</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10168</v>
+        <v>10155</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01920903904565381</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005317045858162399</v>
+        <v>0.004773072472987944</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0469951503144402</v>
+        <v>0.04693539538045347</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -3538,19 +3538,19 @@
         <v>12455</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6697</v>
+        <v>6710</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21227</v>
+        <v>20253</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02492747036895309</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01340245597533702</v>
+        <v>0.01342800590209926</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04248182700385125</v>
+        <v>0.04053325342641129</v>
       </c>
     </row>
     <row r="15">
@@ -3567,19 +3567,19 @@
         <v>54015</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>40616</v>
+        <v>41347</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>67632</v>
+        <v>69993</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1906566136665775</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1433643632685174</v>
+        <v>0.1459437148061567</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2387207340298842</v>
+        <v>0.2470548422031912</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>32</v>
@@ -3588,19 +3588,19 @@
         <v>32571</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>22377</v>
+        <v>23107</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>42552</v>
+        <v>43024</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1505428424604809</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1034261988005133</v>
+        <v>0.1067989533711439</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1966750118040196</v>
+        <v>0.1988582110279836</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>82</v>
@@ -3609,19 +3609,19 @@
         <v>86586</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>71524</v>
+        <v>70487</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>106344</v>
+        <v>105622</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1732872346014635</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1431442190548689</v>
+        <v>0.1410682108141531</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2128300222477279</v>
+        <v>0.2113847368752119</v>
       </c>
     </row>
     <row r="16">
@@ -3638,19 +3638,19 @@
         <v>153876</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>136743</v>
+        <v>135472</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>171594</v>
+        <v>170113</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.543139535958725</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4826633374809204</v>
+        <v>0.4781792315598604</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6056770604777947</v>
+        <v>0.600448963398288</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>115</v>
@@ -3659,19 +3659,19 @@
         <v>121051</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>105145</v>
+        <v>105361</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>135487</v>
+        <v>136206</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5594955318688754</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4859793313267759</v>
+        <v>0.4869783492766528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6262173847405774</v>
+        <v>0.6295449660107011</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>254</v>
@@ -3680,19 +3680,19 @@
         <v>274927</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>249098</v>
+        <v>253057</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>296361</v>
+        <v>295732</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.550221729539858</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4985281407295981</v>
+        <v>0.5064514938670898</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5931174964486741</v>
+        <v>0.5918598392050793</v>
       </c>
     </row>
     <row r="17">
@@ -3709,19 +3709,19 @@
         <v>67119</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53675</v>
+        <v>53010</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83209</v>
+        <v>84180</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2369093430369597</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1894562724290731</v>
+        <v>0.1871099265737811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2937044387799398</v>
+        <v>0.297132328696111</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -3730,19 +3730,19 @@
         <v>58579</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45072</v>
+        <v>46086</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>72585</v>
+        <v>72574</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.27075258662499</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2083210609652804</v>
+        <v>0.213007145383371</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.335487269348011</v>
+        <v>0.3354375136553446</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>119</v>
@@ -3751,19 +3751,19 @@
         <v>125698</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>106761</v>
+        <v>105000</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>146329</v>
+        <v>146130</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2515635654897254</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2136655041103703</v>
+        <v>0.2101403113450928</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2928545828193193</v>
+        <v>0.2924560174386174</v>
       </c>
     </row>
     <row r="18">
@@ -3855,19 +3855,19 @@
         <v>3764</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8825</v>
+        <v>9034</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02363257205043636</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005769715905015809</v>
+        <v>0.005773478670040077</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05540558497779394</v>
+        <v>0.05672236291430758</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -3876,19 +3876,19 @@
         <v>4312</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10438</v>
+        <v>10347</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04206760080121324</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01049298795358</v>
+        <v>0.01046341499875984</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1018410874433798</v>
+        <v>0.1009530643676799</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -3897,19 +3897,19 @@
         <v>8076</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3249</v>
+        <v>3289</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14983</v>
+        <v>14433</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03085075717701797</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01241352439552468</v>
+        <v>0.01256545591604777</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05723776828439827</v>
+        <v>0.05513506186038671</v>
       </c>
     </row>
     <row r="20">
@@ -3926,19 +3926,19 @@
         <v>32092</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22384</v>
+        <v>22669</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43162</v>
+        <v>42404</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2014896689741899</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1405343284963152</v>
+        <v>0.1423243098160677</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2709885294849833</v>
+        <v>0.2662305349532599</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -3947,19 +3947,19 @@
         <v>13885</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7196</v>
+        <v>7780</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23310</v>
+        <v>23095</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1354738549636859</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07021316099828455</v>
+        <v>0.07590917111464254</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2274297773651247</v>
+        <v>0.225327491430925</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>44</v>
@@ -3968,19 +3968,19 @@
         <v>45978</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>34490</v>
+        <v>34084</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>59153</v>
+        <v>60048</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.175641357411903</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1317574005467202</v>
+        <v>0.1302042240371891</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.225973822196656</v>
+        <v>0.2293919501309634</v>
       </c>
     </row>
     <row r="21">
@@ -3997,19 +3997,19 @@
         <v>86562</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>72864</v>
+        <v>73532</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>100320</v>
+        <v>100086</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.543472639521736</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.457474612121681</v>
+        <v>0.4616686897953888</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6298543471448727</v>
+        <v>0.6283872875520476</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>62</v>
@@ -4018,19 +4018,19 @@
         <v>67335</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>58110</v>
+        <v>56617</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>77104</v>
+        <v>76638</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6569594866490351</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5669503945879554</v>
+        <v>0.5523864279579663</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7522740401281612</v>
+        <v>0.747725267307805</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>139</v>
@@ -4039,19 +4039,19 @@
         <v>153897</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>137622</v>
+        <v>137772</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>171455</v>
+        <v>170647</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.587908104368103</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5257359747426997</v>
+        <v>0.5263087363330023</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6549833025828923</v>
+        <v>0.6518952328032737</v>
       </c>
     </row>
     <row r="22">
@@ -4068,19 +4068,19 @@
         <v>36857</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26103</v>
+        <v>25814</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48280</v>
+        <v>47266</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2314051194536377</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1638851348418578</v>
+        <v>0.1620734571333998</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3031205651229608</v>
+        <v>0.2967548217037069</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -4089,19 +4089,19 @@
         <v>16963</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9985</v>
+        <v>10300</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25329</v>
+        <v>25262</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1654990575860657</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09741998755285114</v>
+        <v>0.1004962489472643</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2471264321076632</v>
+        <v>0.2464706803208949</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -4110,19 +4110,19 @@
         <v>53820</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41301</v>
+        <v>40234</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68120</v>
+        <v>67819</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.205599781042976</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1577771248489934</v>
+        <v>0.1537010486846239</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2602294117817456</v>
+        <v>0.2590780523771942</v>
       </c>
     </row>
     <row r="23">
@@ -4214,19 +4214,19 @@
         <v>21878</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13686</v>
+        <v>14267</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30721</v>
+        <v>32250</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01629986782622382</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0101963975389483</v>
+        <v>0.01062886830237843</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02288798789130424</v>
+        <v>0.02402696787536655</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -4235,19 +4235,19 @@
         <v>13869</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7521</v>
+        <v>7833</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23727</v>
+        <v>22381</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01429749485512041</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007753762191034035</v>
+        <v>0.008075126657848533</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02446036180441584</v>
+        <v>0.02307277840461543</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>35</v>
@@ -4256,19 +4256,19 @@
         <v>35747</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24317</v>
+        <v>24495</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>49036</v>
+        <v>47835</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01545985921761537</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01051643381051589</v>
+        <v>0.01059344215608959</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02120718416753707</v>
+        <v>0.0206876100836744</v>
       </c>
     </row>
     <row r="25">
@@ -4285,19 +4285,19 @@
         <v>209965</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>184444</v>
+        <v>183933</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>239398</v>
+        <v>241460</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1564285946796628</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1374146229108094</v>
+        <v>0.1370336653910141</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1783567636174111</v>
+        <v>0.1798926551063174</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>132</v>
@@ -4306,19 +4306,19 @@
         <v>144034</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>122251</v>
+        <v>121037</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>169536</v>
+        <v>170269</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1484881871254011</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1260317597059926</v>
+        <v>0.124780014087889</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1747788129503145</v>
+        <v>0.1755339148617261</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>330</v>
@@ -4327,19 +4327,19 @@
         <v>354000</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>320951</v>
+        <v>321692</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>389666</v>
+        <v>393521</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1530975415753233</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1388045588496411</v>
+        <v>0.1391250322614085</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1685225498409727</v>
+        <v>0.1701897710732857</v>
       </c>
     </row>
     <row r="26">
@@ -4356,19 +4356,19 @@
         <v>828451</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>789289</v>
+        <v>791420</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>862210</v>
+        <v>862788</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6172129448767143</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5880362966564651</v>
+        <v>0.5896241870829854</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6423639988362879</v>
+        <v>0.6427948483611446</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>562</v>
@@ -4377,19 +4377,19 @@
         <v>610599</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>578847</v>
+        <v>577617</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>638701</v>
+        <v>640646</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6294811808496608</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5967467597367223</v>
+        <v>0.5954791682046902</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6584514664647797</v>
+        <v>0.6604573050413097</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1333</v>
@@ -4398,19 +4398,19 @@
         <v>1439050</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1392576</v>
+        <v>1391049</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1486134</v>
+        <v>1484070</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6223595504184561</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6022602767881046</v>
+        <v>0.601599977836517</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6427223694933051</v>
+        <v>0.6418298008543479</v>
       </c>
     </row>
     <row r="27">
@@ -4427,19 +4427,19 @@
         <v>281950</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>253571</v>
+        <v>253676</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>314559</v>
+        <v>316097</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2100585926173991</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1889157081661589</v>
+        <v>0.1889938508308269</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.234353109374153</v>
+        <v>0.235498528548668</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>185</v>
@@ -4448,19 +4448,19 @@
         <v>201502</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>174886</v>
+        <v>177282</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>228463</v>
+        <v>230094</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2077331371698178</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.180294143496027</v>
+        <v>0.1827643585324708</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2355275620077537</v>
+        <v>0.23720934452864</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>454</v>
@@ -4469,19 +4469,19 @@
         <v>483452</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>442292</v>
+        <v>440286</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>522741</v>
+        <v>519826</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2090830487886051</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1912822517212316</v>
+        <v>0.1904145912221989</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2260745000859724</v>
+        <v>0.2248140626302584</v>
       </c>
     </row>
     <row r="28">
@@ -4813,19 +4813,19 @@
         <v>10048</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5136</v>
+        <v>5066</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18245</v>
+        <v>17904</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02069259037043067</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01057756465170581</v>
+        <v>0.01043379536511798</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0375730613174734</v>
+        <v>0.03687074022390815</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4834,19 +4834,19 @@
         <v>3807</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>991</v>
+        <v>976</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9075</v>
+        <v>9447</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009653512315724946</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002513521542699742</v>
+        <v>0.002475082222316378</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02301316464204097</v>
+        <v>0.02395696340417783</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -4855,19 +4855,19 @@
         <v>13855</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8054</v>
+        <v>7719</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22878</v>
+        <v>23996</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01574538990204858</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009152923426677523</v>
+        <v>0.00877291950547367</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02599975306472727</v>
+        <v>0.02727088484282184</v>
       </c>
     </row>
     <row r="5">
@@ -4884,19 +4884,19 @@
         <v>87877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71195</v>
+        <v>70820</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>108180</v>
+        <v>106953</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.180971466332827</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1466183541469311</v>
+        <v>0.1458456728697312</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2227834873653355</v>
+        <v>0.2202573832903612</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -4905,19 +4905,19 @@
         <v>87607</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72055</v>
+        <v>71267</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106384</v>
+        <v>105720</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2221603718747683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1827234845209961</v>
+        <v>0.1807244287852348</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2697766882895673</v>
+        <v>0.268091828311287</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>163</v>
@@ -4926,19 +4926,19 @@
         <v>175483</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>152547</v>
+        <v>153409</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>201134</v>
+        <v>202697</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1994304147866225</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1733640101972069</v>
+        <v>0.1743439388618783</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2285811813997485</v>
+        <v>0.2303580150562272</v>
       </c>
     </row>
     <row r="6">
@@ -4955,19 +4955,19 @@
         <v>275033</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>252736</v>
+        <v>252010</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>297886</v>
+        <v>297016</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5663979333905315</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5204797480392063</v>
+        <v>0.5189848432115174</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6134595964010607</v>
+        <v>0.6116690233514325</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>226</v>
@@ -4976,19 +4976,19 @@
         <v>232208</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>212823</v>
+        <v>211922</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>251917</v>
+        <v>252150</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5888504726329533</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5396929809575335</v>
+        <v>0.5374084908887697</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6388306610268261</v>
+        <v>0.6394218454795261</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>479</v>
@@ -4997,19 +4997,19 @@
         <v>507241</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>476584</v>
+        <v>476049</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>537398</v>
+        <v>534933</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5764601154048281</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5416205060121957</v>
+        <v>0.5410116038673367</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6107332573344297</v>
+        <v>0.6079318204949981</v>
       </c>
     </row>
     <row r="7">
@@ -5026,19 +5026,19 @@
         <v>112625</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>95039</v>
+        <v>94072</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>133016</v>
+        <v>132284</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2319380099062108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1957209882252095</v>
+        <v>0.1937303013880062</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2739314254206583</v>
+        <v>0.2724238871675924</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -5047,19 +5047,19 @@
         <v>70719</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55859</v>
+        <v>55804</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86960</v>
+        <v>86418</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1793356431765534</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.141652427236008</v>
+        <v>0.141512484466125</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2205210532775758</v>
+        <v>0.2191446650315994</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>173</v>
@@ -5068,19 +5068,19 @@
         <v>183344</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158744</v>
+        <v>159500</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>211319</v>
+        <v>208300</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2083640799065008</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1804062005383635</v>
+        <v>0.1812656542986801</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2401561071323945</v>
+        <v>0.2367251414286842</v>
       </c>
     </row>
     <row r="8">
@@ -5172,19 +5172,19 @@
         <v>9425</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4615</v>
+        <v>4648</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17539</v>
+        <v>19737</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0293738940604245</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01438222774349919</v>
+        <v>0.01448570137147411</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0546624939644073</v>
+        <v>0.06151231511653374</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -5193,19 +5193,19 @@
         <v>9061</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3972</v>
+        <v>4296</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15976</v>
+        <v>16132</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03488310159530345</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01529143639384399</v>
+        <v>0.01653850555308247</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06150353014746971</v>
+        <v>0.06210511253686902</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -5214,19 +5214,19 @@
         <v>18486</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11492</v>
+        <v>11847</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29495</v>
+        <v>29219</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03183855065486069</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01979246012277517</v>
+        <v>0.02040403053261916</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05079958329970628</v>
+        <v>0.05032344797582925</v>
       </c>
     </row>
     <row r="10">
@@ -5243,19 +5243,19 @@
         <v>56317</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42242</v>
+        <v>43139</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69610</v>
+        <v>70082</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.175514094153495</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1316502591173436</v>
+        <v>0.1344437636891291</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2169424415047778</v>
+        <v>0.2184120794664789</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -5264,19 +5264,19 @@
         <v>52671</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41358</v>
+        <v>41396</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65775</v>
+        <v>66139</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2027715315848169</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1592210973991467</v>
+        <v>0.1593669583745794</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2532220570583463</v>
+        <v>0.2546205373086002</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -5285,19 +5285,19 @@
         <v>108988</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91885</v>
+        <v>89632</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>127888</v>
+        <v>128754</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1877082659081838</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1582529471074387</v>
+        <v>0.1543724755318047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2202599645004313</v>
+        <v>0.2217506990951158</v>
       </c>
     </row>
     <row r="11">
@@ -5314,19 +5314,19 @@
         <v>185160</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>167750</v>
+        <v>167208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>202472</v>
+        <v>203256</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5770574753845951</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5227976832089035</v>
+        <v>0.5211112774556512</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6310109617054673</v>
+        <v>0.6334546577734057</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>139</v>
@@ -5335,19 +5335,19 @@
         <v>143769</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>126689</v>
+        <v>128306</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>159466</v>
+        <v>160559</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5534816476800688</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4877257726932206</v>
+        <v>0.493950227022289</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6139106455300283</v>
+        <v>0.6181176598111638</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>314</v>
@@ -5356,19 +5356,19 @@
         <v>328929</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>304229</v>
+        <v>303836</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>352314</v>
+        <v>351606</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.566510346990288</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5239701403091935</v>
+        <v>0.5232934326600704</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6067860904349304</v>
+        <v>0.6055665993141544</v>
       </c>
     </row>
     <row r="12">
@@ -5385,19 +5385,19 @@
         <v>69967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55909</v>
+        <v>55789</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>85461</v>
+        <v>86720</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2180545364014854</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1742430325510104</v>
+        <v>0.1738682434603555</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2663417236371968</v>
+        <v>0.2702660725057807</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>52</v>
@@ -5406,19 +5406,19 @@
         <v>54253</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>41311</v>
+        <v>41921</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>67750</v>
+        <v>68355</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2088637191398109</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1590370789749287</v>
+        <v>0.1613875203189808</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2608224668837805</v>
+        <v>0.2631528366702531</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>119</v>
@@ -5427,19 +5427,19 @@
         <v>124220</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>104098</v>
+        <v>107066</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>144798</v>
+        <v>145815</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2139428364466675</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1792874986009073</v>
+        <v>0.1843983268427285</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2493833344090749</v>
+        <v>0.2511357738215428</v>
       </c>
     </row>
     <row r="13">
@@ -5531,19 +5531,19 @@
         <v>6208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2072</v>
+        <v>2139</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11675</v>
+        <v>12410</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02815547218754792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009396442400874548</v>
+        <v>0.009699177629926163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05294689471880343</v>
+        <v>0.05627960552087664</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -5552,19 +5552,19 @@
         <v>3935</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>957</v>
+        <v>1034</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9298</v>
+        <v>9097</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02426316380503359</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005903120299298348</v>
+        <v>0.006373825689015897</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05733142892217621</v>
+        <v>0.05609159584018785</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -5573,19 +5573,19 @@
         <v>10144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5046</v>
+        <v>5147</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18481</v>
+        <v>18080</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02650587727794857</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01318599699774044</v>
+        <v>0.013450314450407</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04829180699263061</v>
+        <v>0.04724475180789916</v>
       </c>
     </row>
     <row r="15">
@@ -5602,19 +5602,19 @@
         <v>54188</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>42471</v>
+        <v>41395</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>69710</v>
+        <v>68161</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2457451519757945</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1926080173988838</v>
+        <v>0.1877298440814068</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3161413660350224</v>
+        <v>0.3091182018673951</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>28</v>
@@ -5623,19 +5623,19 @@
         <v>28149</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19447</v>
+        <v>19956</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>37957</v>
+        <v>39272</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1735548722060531</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1199058672594414</v>
+        <v>0.1230430307910775</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2340299534648949</v>
+        <v>0.2421391790669569</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>77</v>
@@ -5644,19 +5644,19 @@
         <v>82336</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>66823</v>
+        <v>66171</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>100313</v>
+        <v>98136</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2151502693694495</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1746132704560498</v>
+        <v>0.1729093807642161</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.262123698199265</v>
+        <v>0.2564348734280336</v>
       </c>
     </row>
     <row r="16">
@@ -5673,19 +5673,19 @@
         <v>121541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>106231</v>
+        <v>106510</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>135250</v>
+        <v>137302</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5511982135224422</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4817665371751378</v>
+        <v>0.4830313208172127</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6133707804294012</v>
+        <v>0.6226751429879926</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>95</v>
@@ -5694,19 +5694,19 @@
         <v>96781</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>84408</v>
+        <v>83013</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109813</v>
+        <v>108598</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5967201656436267</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.520432519871848</v>
+        <v>0.5118311851762896</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6770696518268705</v>
+        <v>0.6695833503216533</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>208</v>
@@ -5715,19 +5715,19 @@
         <v>218322</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>198005</v>
+        <v>198424</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>236853</v>
+        <v>238305</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.570490821690766</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5174008970502523</v>
+        <v>0.5184965742549423</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6189141385243903</v>
+        <v>0.6227075644138911</v>
       </c>
     </row>
     <row r="17">
@@ -5744,19 +5744,19 @@
         <v>38566</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27686</v>
+        <v>28679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50589</v>
+        <v>51140</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1749011623142154</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1255561698708711</v>
+        <v>0.1300595315743573</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.229426611460921</v>
+        <v>0.2319247733855063</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -5765,19 +5765,19 @@
         <v>33323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23500</v>
+        <v>24250</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44461</v>
+        <v>45627</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2054617983452866</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1448935031955015</v>
+        <v>0.149520084291926</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2741306452544383</v>
+        <v>0.2813234439928123</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>67</v>
@@ -5786,19 +5786,19 @@
         <v>71890</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>56921</v>
+        <v>58568</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>89133</v>
+        <v>89434</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1878530316618358</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1487383972529972</v>
+        <v>0.1530427537785569</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2329093810085814</v>
+        <v>0.2336958636964549</v>
       </c>
     </row>
     <row r="18">
@@ -5890,19 +5890,19 @@
         <v>7235</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3085</v>
+        <v>3161</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14287</v>
+        <v>14960</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05698264891759415</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02429367312964843</v>
+        <v>0.02489673276688189</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1125165694906809</v>
+        <v>0.1178169200243108</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -5911,19 +5911,19 @@
         <v>6097</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2078</v>
+        <v>2095</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12283</v>
+        <v>12357</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06660094606260362</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02269801298392017</v>
+        <v>0.02288828309511086</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1341754649550953</v>
+        <v>0.1349837739748682</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -5932,19 +5932,19 @@
         <v>13332</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7591</v>
+        <v>7414</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21937</v>
+        <v>22130</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06101192235752233</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03473812694984733</v>
+        <v>0.03392661315767894</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1003891494442563</v>
+        <v>0.1012758589927457</v>
       </c>
     </row>
     <row r="20">
@@ -5961,19 +5961,19 @@
         <v>29956</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21405</v>
+        <v>20549</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40764</v>
+        <v>40834</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2359195176762761</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1685723094495467</v>
+        <v>0.1618335292806724</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3210357036313383</v>
+        <v>0.3215914499448552</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -5982,19 +5982,19 @@
         <v>14656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8479</v>
+        <v>8544</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22746</v>
+        <v>23556</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1601073809500881</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09262115215209347</v>
+        <v>0.09333216125500077</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2484833294517246</v>
+        <v>0.2573228347043647</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>41</v>
@@ -6003,19 +6003,19 @@
         <v>44613</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33630</v>
+        <v>32108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>58755</v>
+        <v>57777</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2041604833763713</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1539004144475675</v>
+        <v>0.1469374815797825</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2688797724265546</v>
+        <v>0.2644066512276472</v>
       </c>
     </row>
     <row r="21">
@@ -6032,19 +6032,19 @@
         <v>61932</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>50128</v>
+        <v>48821</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>73882</v>
+        <v>73481</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4877478511657074</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3947844233243491</v>
+        <v>0.384486690931099</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5818562589737835</v>
+        <v>0.5787002815248632</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -6053,19 +6053,19 @@
         <v>45557</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36246</v>
+        <v>36042</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54982</v>
+        <v>56024</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4976708409190228</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3959587316423691</v>
+        <v>0.39372413487244</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.600622513863394</v>
+        <v>0.612013606151473</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>102</v>
@@ -6074,19 +6074,19 @@
         <v>107490</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>92078</v>
+        <v>91193</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>122382</v>
+        <v>122945</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4919047656854941</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4213779705648446</v>
+        <v>0.4173262874283522</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5600567543210048</v>
+        <v>0.5626356221878335</v>
       </c>
     </row>
     <row r="22">
@@ -6103,19 +6103,19 @@
         <v>27852</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19301</v>
+        <v>19035</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39136</v>
+        <v>38731</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2193499822404223</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1520077994252559</v>
+        <v>0.1499114686788348</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3082130660182708</v>
+        <v>0.3050258783279272</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -6124,19 +6124,19 @@
         <v>25231</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17440</v>
+        <v>17097</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34595</v>
+        <v>34128</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2756208320682855</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1905204673491151</v>
+        <v>0.1867715388678758</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3779225167930618</v>
+        <v>0.3728181653226172</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -6145,19 +6145,19 @@
         <v>53083</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41454</v>
+        <v>42478</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67835</v>
+        <v>68352</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2429228285806123</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1897050335896212</v>
+        <v>0.1943940704221411</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3104326376998299</v>
+        <v>0.3127996075366395</v>
       </c>
     </row>
     <row r="23">
@@ -6249,19 +6249,19 @@
         <v>32917</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22580</v>
+        <v>22381</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>45838</v>
+        <v>46002</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02852592756842124</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01956771715681439</v>
+        <v>0.01939565930891891</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03972304232182108</v>
+        <v>0.0398654394000177</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -6270,19 +6270,19 @@
         <v>22900</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14351</v>
+        <v>14925</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32946</v>
+        <v>34515</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02522482214016263</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01580770912413012</v>
+        <v>0.01644016098701091</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03629091730075396</v>
+        <v>0.03802002012202763</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>55</v>
@@ -6291,19 +6291,19 @@
         <v>55817</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>42650</v>
+        <v>42931</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>71279</v>
+        <v>72316</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02707239925960865</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02068630640051478</v>
+        <v>0.02082270190210108</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0345720101310858</v>
+        <v>0.03507516740957902</v>
       </c>
     </row>
     <row r="25">
@@ -6320,19 +6320,19 @@
         <v>228338</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>201777</v>
+        <v>200988</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>259881</v>
+        <v>257915</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1978778561359745</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1748605889960062</v>
+        <v>0.1741763058304118</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2252137206570109</v>
+        <v>0.2235099954950893</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>178</v>
@@ -6341,19 +6341,19 @@
         <v>183082</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>157234</v>
+        <v>157082</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>204859</v>
+        <v>209039</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2016718790498706</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1731988891797714</v>
+        <v>0.1730315519861162</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2256596408382899</v>
+        <v>0.230263857014474</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>386</v>
@@ -6362,19 +6362,19 @@
         <v>411420</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>376658</v>
+        <v>377260</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>449849</v>
+        <v>453164</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1995484237168896</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.182687929755161</v>
+        <v>0.1829798979644957</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2181872283923786</v>
+        <v>0.2197953137083936</v>
       </c>
     </row>
     <row r="26">
@@ -6391,19 +6391,19 @@
         <v>643667</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>610098</v>
+        <v>607580</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>677615</v>
+        <v>677734</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5578029943953827</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5287119555308615</v>
+        <v>0.5265302713440789</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5872222333611765</v>
+        <v>0.5873257758410221</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>505</v>
@@ -6412,19 +6412,19 @@
         <v>518315</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>485465</v>
+        <v>488125</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>547686</v>
+        <v>546537</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5709422991874882</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5347574775799939</v>
+        <v>0.5376871375926058</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6032958471517617</v>
+        <v>0.6020307413878239</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1103</v>
@@ -6433,19 +6433,19 @@
         <v>1161981</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1115773</v>
+        <v>1113727</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1205978</v>
+        <v>1207743</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5635884356327191</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5411765377211306</v>
+        <v>0.5401840647212692</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5849279161744487</v>
+        <v>0.5857838063601221</v>
       </c>
     </row>
     <row r="27">
@@ -6462,19 +6462,19 @@
         <v>249011</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>223043</v>
+        <v>221618</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>277728</v>
+        <v>280870</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2157932219002215</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1932893562658198</v>
+        <v>0.1920548199723039</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2406797725982334</v>
+        <v>0.2434026796491102</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>174</v>
@@ -6483,19 +6483,19 @@
         <v>183526</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>161321</v>
+        <v>161410</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>208070</v>
+        <v>211659</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2021609996224786</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1777012874058808</v>
+        <v>0.1777988734334897</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2291965418256936</v>
+        <v>0.2331496849191724</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>408</v>
@@ -6504,19 +6504,19 @@
         <v>432537</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>396506</v>
+        <v>393218</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>472890</v>
+        <v>471895</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2097907413907827</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1923146185139723</v>
+        <v>0.1907198622846585</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.229362923176378</v>
+        <v>0.2288803240259362</v>
       </c>
     </row>
     <row r="28">
